--- a/biology/Médecine/Rolando_Toro_Araneda/Rolando_Toro_Araneda.xlsx
+++ b/biology/Médecine/Rolando_Toro_Araneda/Rolando_Toro_Araneda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rolando Toro Araneda, né au Chili le 19 avril 1924 et mort le 16 février 2010, est un anthropologue et psychologue chilien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est chargé de cours d'anthropologie médicale à l'École de Médecine du Chili où il fait des recherches sur l'expansion de conscience, professeur en psychologie de l'Art et de l'Expression à l'Institut des Beaux-Arts de l'Université pontificale catholique du Chili et Professeur à l'Université Ouverte Inter-Américaine d'Argentine
 Il crée le système Biodanza au début des années 1960 et étudie le psychosomatisme, les maladies de Parkinson et d'Alzheimer à travers le système Biodanza en Argentine, Brésil, Italie et Suisse entre 1974 et 1998, date à laquelle il rentre au Chili.
